--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_93.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_93.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2708333333333334</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'G', 'D', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09980620155038759</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'C:maj', 'G/3', 'D:maj', 'C:maj']]</t>
+          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(195.744149, 209.641292)]</t>
+          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(73.89, 86.025)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:11.300000', '0:00:39')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:21.860000', '0:00:28.920000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2007575757575757</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'A:min'], ['C', 'C/7', 'C/6']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.172360248447205</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'B/7', 'G#:min'], ['B', 'B', 'B/7']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.227, 21.36), (69.901, 77.903)]</t>
+          <t>[['A:7', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.929002), (9.480113, 15.412811)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:17.360000', '0:00:19.540000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:33.016000', '0:00:39.805000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09249011857707509</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09441128594682582</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.482392, 11.666439)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.557446', '0:00:06.319079')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:43.100468', '0:00:51.657021')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1623931623931624</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1576923076923077</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'F:maj', 'G', 'C:maj']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(27.109319, 34.307505)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(30.761, 36.091)]</t>
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2229102167182662</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['B', 'E', 'A', 'E'], ['B', 'E', 'B', 'E'], ['E', 'B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(79.98, 93.6)]</t>
+          <t>[['D', 'G', 'C', 'G'], ['D', 'G', 'D', 'G'], ['G', 'D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.16, 20.68)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:46.016712', '0:01:05.695623'), ('0:00:00.459543', '0:00:06.357029'), ('0:00:43.555396', '0:00:58.392947')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:44.983424', '0:00:55.304693'), ('0:00:26.921541', '0:00:37.216349'), ('0:00:11.465419', '0:00:21.740249')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08392857142857144</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Db:7', 'Gb', 'Gb']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C']]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(28.079297, 32.374988)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(20.32, 23.81)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.06, 30.08), (70.56, 74.38), (72.82, 80.0), (74.38, 84.38)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(55.4, 63.68), (60.04, 65.24), (72.52, 83.28), (6.12, 11.62)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.34, 44.36)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1535714285714286</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(128.16, 129.32)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361)]</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.2, 16.32)]</t>
+          <t>[['B:dim7', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(23.08, 29.9)]</t>
+          <t>[('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09838709677419355</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2388758782201405</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(49.56, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(124.92, 128.84)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(120.22, 121.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(29.02, 40.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
